--- a/0_1_Output_Data/6_naive_forecaster_qoq_error_series_ifoCASTset_naive_qoq/AR2_50_9_qoq_errors_latest_eval_ifoCASTset_naive_qoq.xlsx
+++ b/0_1_Output_Data/6_naive_forecaster_qoq_error_series_ifoCASTset_naive_qoq/AR2_50_9_qoq_errors_latest_eval_ifoCASTset_naive_qoq.xlsx
@@ -513,34 +513,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.1278195408837234</v>
+        <v>-1.282872386776422</v>
       </c>
       <c r="C2">
-        <v>-1.400444400388857</v>
+        <v>0.1391894435007327</v>
       </c>
       <c r="D2">
-        <v>0.08695924927729271</v>
+        <v>-0.182694870696341</v>
       </c>
       <c r="E2">
-        <v>-0.207196275323166</v>
+        <v>0.3443354285759472</v>
       </c>
       <c r="F2">
-        <v>0.3329321255475683</v>
+        <v>0.1070053646347159</v>
       </c>
       <c r="G2">
-        <v>0.101692144383436</v>
+        <v>0.2095078597799856</v>
       </c>
       <c r="H2">
-        <v>0.2070326302046627</v>
+        <v>0.110633009540361</v>
       </c>
       <c r="I2">
-        <v>0.1094798668430039</v>
+        <v>0.6128907522960124</v>
       </c>
       <c r="J2">
-        <v>0.6123535359610832</v>
+        <v>0.8708754778845325</v>
       </c>
       <c r="K2">
-        <v>0.8706252039810712</v>
+        <v>-0.8533573809972426</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -548,34 +548,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.5447147469754596</v>
+        <v>0.2750606270018259</v>
       </c>
       <c r="C3">
-        <v>0.001955153691105105</v>
+        <v>0.5534868575902183</v>
       </c>
       <c r="D3">
-        <v>0.4339574590591693</v>
+        <v>0.2080306981463169</v>
       </c>
       <c r="E3">
-        <v>0.1559537485280918</v>
+        <v>0.2637694639246414</v>
       </c>
       <c r="F3">
-        <v>0.2410754634991643</v>
+        <v>0.1446758428348626</v>
       </c>
       <c r="G3">
-        <v>0.1347863954460349</v>
+        <v>0.6381972808990434</v>
       </c>
       <c r="H3">
-        <v>0.6338877181444649</v>
+        <v>0.892409660067914</v>
       </c>
       <c r="I3">
-        <v>0.8905316652766015</v>
+        <v>-0.8334509197017121</v>
       </c>
       <c r="J3">
-        <v>-0.8342693007396872</v>
+        <v>-0.1806300843769859</v>
       </c>
       <c r="K3">
-        <v>-0.1809867134402706</v>
+        <v>0.1825572214681606</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -583,34 +583,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.4178261858414339</v>
+        <v>0.1918994249285815</v>
       </c>
       <c r="C4">
-        <v>0.1320128381891874</v>
+        <v>0.239828553585737</v>
       </c>
       <c r="D4">
-        <v>0.2167499100690802</v>
+        <v>0.1203502894047785</v>
       </c>
       <c r="E4">
-        <v>0.1128318376506894</v>
+        <v>0.6162427231036979</v>
       </c>
       <c r="F4">
-        <v>0.6140076662505021</v>
+        <v>0.8725296081739512</v>
       </c>
       <c r="G4">
-        <v>0.8719046650920586</v>
+        <v>-0.8520779198862551</v>
       </c>
       <c r="H4">
-        <v>-0.8522446856725341</v>
+        <v>-0.1986054693098328</v>
       </c>
       <c r="I4">
-        <v>-0.1986482585427252</v>
+        <v>0.164895676365706</v>
       </c>
       <c r="J4">
-        <v>0.1648850825765775</v>
+        <v>-0.7358907623030519</v>
       </c>
       <c r="K4">
-        <v>-0.7358932949942634</v>
+        <v>0.3344822619593895</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -618,34 +618,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.2987028809941715</v>
+        <v>0.2023032603298698</v>
       </c>
       <c r="C5">
-        <v>0.1220291778826379</v>
+        <v>0.6254400633356464</v>
       </c>
       <c r="D5">
-        <v>0.5943001037495309</v>
+        <v>0.85282204567298</v>
       </c>
       <c r="E5">
-        <v>0.8426663495950357</v>
+        <v>-0.8813162353832781</v>
       </c>
       <c r="F5">
-        <v>-0.8843890704881969</v>
+        <v>-0.2307498541254956</v>
       </c>
       <c r="G5">
-        <v>-0.2316442249927503</v>
+        <v>0.1318997099156809</v>
       </c>
       <c r="H5">
-        <v>0.131645037661246</v>
+        <v>-0.7691308072183836</v>
       </c>
       <c r="I5">
-        <v>-0.7692023903738299</v>
+        <v>0.301173166579823</v>
       </c>
       <c r="J5">
-        <v>0.3011532043707359</v>
+        <v>-0.2759067096457259</v>
       </c>
       <c r="K5">
-        <v>-0.2759122492816765</v>
+        <v>-0.4815182333746927</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -653,34 +653,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.5654988129866392</v>
+        <v>0.8240207549100882</v>
       </c>
       <c r="C6">
-        <v>0.8405425659164625</v>
+        <v>-0.8834400190618514</v>
       </c>
       <c r="D6">
-        <v>-0.8771061057057743</v>
+        <v>-0.2234668893430731</v>
       </c>
       <c r="E6">
-        <v>-0.2212277120495061</v>
+        <v>0.1423162228589251</v>
       </c>
       <c r="F6">
-        <v>0.1430861830955678</v>
+        <v>-0.7576896617840617</v>
       </c>
       <c r="G6">
-        <v>-0.7574275902997809</v>
+        <v>0.3129479666538719</v>
       </c>
       <c r="H6">
-        <v>0.3130368251941282</v>
+        <v>-0.2640230888223336</v>
       </c>
       <c r="I6">
-        <v>-0.26399300444011</v>
+        <v>-0.4695989885331262</v>
       </c>
       <c r="J6">
-        <v>-0.4695888087369317</v>
+        <v>0.5095561729841656</v>
       </c>
       <c r="K6">
-        <v>0.509559616829137</v>
+        <v>-0.226786726508225</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -688,34 +688,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.9989882668015876</v>
+        <v>-0.3453490504388863</v>
       </c>
       <c r="C7">
-        <v>-0.31307288098283</v>
+        <v>0.05047105392560119</v>
       </c>
       <c r="D7">
-        <v>0.06321343652415951</v>
+        <v>-0.83756240835547</v>
       </c>
       <c r="E7">
-        <v>-0.8323569178484489</v>
+        <v>0.2380186391052039</v>
       </c>
       <c r="F7">
-        <v>0.240154187874971</v>
+        <v>-0.3369057261414908</v>
       </c>
       <c r="G7">
-        <v>-0.3360291699081773</v>
+        <v>-0.5416351540011936</v>
       </c>
       <c r="H7">
-        <v>-0.54127534092662</v>
+        <v>0.4378696407944773</v>
       </c>
       <c r="I7">
-        <v>0.4380173397222749</v>
+        <v>-0.2983290036150871</v>
       </c>
       <c r="J7">
-        <v>-0.2982683749317745</v>
+        <v>-0.3162381895859678</v>
       </c>
       <c r="K7">
-        <v>-0.3162133022174854</v>
+        <v>-0.2928084366771486</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -723,34 +723,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.1585282081815222</v>
+        <v>-0.7422476366981072</v>
       </c>
       <c r="C8">
-        <v>-0.7540892131611641</v>
+        <v>0.3162863437924887</v>
       </c>
       <c r="D8">
-        <v>0.3107446784608449</v>
+        <v>-0.2663152355556169</v>
       </c>
       <c r="E8">
-        <v>-0.2689678476130288</v>
+        <v>-0.4745738317060451</v>
       </c>
       <c r="F8">
-        <v>-0.4758419697301518</v>
+        <v>0.5033030119909454</v>
       </c>
       <c r="G8">
-        <v>0.5026967102291701</v>
+        <v>-0.2336496331081919</v>
       </c>
       <c r="H8">
-        <v>-0.2339395072814273</v>
+        <v>-0.2519093219356206</v>
       </c>
       <c r="I8">
-        <v>-0.2520479114279362</v>
+        <v>-0.2286430458875994</v>
       </c>
       <c r="J8">
-        <v>-0.2287093058339515</v>
+        <v>-0.5938837416006923</v>
       </c>
       <c r="K8">
-        <v>-0.5939154206293106</v>
+        <v>0.06190409654164158</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,34 +758,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.5708672202635848</v>
+        <v>-0.00619269375287701</v>
       </c>
       <c r="C9">
-        <v>-0.1280619160306041</v>
+        <v>-0.3336679001236204</v>
       </c>
       <c r="D9">
-        <v>-0.390397430094944</v>
+        <v>0.5887475516261532</v>
       </c>
       <c r="E9">
-        <v>0.5623484475265214</v>
+        <v>-0.1739978958108406</v>
       </c>
       <c r="F9">
-        <v>-0.1862827769703213</v>
+        <v>-0.2042525916245146</v>
       </c>
       <c r="G9">
-        <v>-0.2099693877891357</v>
+        <v>-0.1865645222487989</v>
       </c>
       <c r="H9">
-        <v>-0.1892248457786991</v>
+        <v>-0.5543992815454399</v>
       </c>
       <c r="I9">
-        <v>-0.5556372688865794</v>
+        <v>0.1001822482843727</v>
       </c>
       <c r="J9">
-        <v>0.09960614818241281</v>
+        <v>-0.03126473275901087</v>
       </c>
       <c r="K9">
-        <v>-0.03153282219454001</v>
+        <v>-0.1410506211186619</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -793,34 +793,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.5880056801767868</v>
+        <v>0.3911393015443105</v>
       </c>
       <c r="C10">
-        <v>0.4383886238637034</v>
+        <v>-0.2979577194736586</v>
       </c>
       <c r="D10">
-        <v>-0.2776623976024654</v>
+        <v>-0.2956322122566587</v>
       </c>
       <c r="E10">
-        <v>-0.2869276062278247</v>
+        <v>-0.2635227406874879</v>
       </c>
       <c r="F10">
-        <v>-0.2597897169002801</v>
+        <v>-0.6249641526670209</v>
       </c>
       <c r="G10">
-        <v>-0.623363232311934</v>
+        <v>0.03245628485901808</v>
       </c>
       <c r="H10">
-        <v>0.03314284490197711</v>
+        <v>-0.09772803603944658</v>
       </c>
       <c r="I10">
-        <v>-0.09743360247869032</v>
+        <v>-0.2069514014028122</v>
       </c>
       <c r="J10">
-        <v>-0.2068251325899858</v>
+        <v>-1.036602919657539</v>
       </c>
       <c r="K10">
-        <v>-1.036548768856761</v>
+        <v>-0.4560229796881132</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -828,34 +828,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.2102603443096386</v>
+        <v>-0.228230158963832</v>
       </c>
       <c r="C11">
-        <v>-0.2120499133054097</v>
+        <v>-0.1886450477650728</v>
       </c>
       <c r="D11">
-        <v>-0.1816236201806256</v>
+        <v>-0.5467980559473664</v>
       </c>
       <c r="E11">
-        <v>-0.5437514435559043</v>
+        <v>0.1120680736150478</v>
       </c>
       <c r="F11">
-        <v>0.1133900045823698</v>
+        <v>-0.01748087635905388</v>
       </c>
       <c r="G11">
-        <v>-0.01690728797492691</v>
+        <v>-0.1264250868990488</v>
       </c>
       <c r="H11">
-        <v>-0.1261762057981929</v>
+        <v>-0.9559539928657461</v>
       </c>
       <c r="I11">
-        <v>-0.9558460028783662</v>
+        <v>-0.3753202137097185</v>
       </c>
       <c r="J11">
-        <v>-0.3752733566469112</v>
+        <v>-0.4586594580766912</v>
       </c>
       <c r="K11">
-        <v>-0.4586391267071986</v>
+        <v>-0.6765490042469573</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -863,34 +863,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.1939803210945991</v>
+        <v>-0.5591547568613399</v>
       </c>
       <c r="C12">
-        <v>-0.5579424334817151</v>
+        <v>0.09787708368923709</v>
       </c>
       <c r="D12">
-        <v>0.09844375035972808</v>
+        <v>-0.03242713058169561</v>
       </c>
       <c r="E12">
-        <v>-0.03216374626862839</v>
+        <v>-0.1416815451927503</v>
       </c>
       <c r="F12">
-        <v>-0.1415591146121002</v>
+        <v>-0.9713369016796535</v>
       </c>
       <c r="G12">
-        <v>-0.9712799915822796</v>
+        <v>-0.390754202413632</v>
       </c>
       <c r="H12">
-        <v>-0.3907277485715169</v>
+        <v>-0.4741138500012969</v>
       </c>
       <c r="I12">
-        <v>-0.4741015533124014</v>
+        <v>-0.6920114308521601</v>
       </c>
       <c r="J12">
-        <v>-0.692005714912784</v>
+        <v>0.8717720887233864</v>
       </c>
       <c r="K12">
-        <v>0.8717747456957818</v>
+        <v>-0.4642089603862817</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -898,34 +898,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.2707464529491325</v>
+        <v>0.1398755720077088</v>
       </c>
       <c r="C13">
-        <v>0.06232838649038364</v>
+        <v>-0.04718941243373825</v>
       </c>
       <c r="D13">
-        <v>-0.08323367572495516</v>
+        <v>-0.9130114627925084</v>
       </c>
       <c r="E13">
-        <v>-0.9297582624152663</v>
+        <v>-0.3492324732466185</v>
       </c>
       <c r="F13">
-        <v>-0.357013373929053</v>
+        <v>-0.4403994753588329</v>
       </c>
       <c r="G13">
-        <v>-0.4440146383915445</v>
+        <v>-0.6619245159313032</v>
       </c>
       <c r="H13">
-        <v>-0.6636041934262084</v>
+        <v>0.900173610209962</v>
       </c>
       <c r="I13">
-        <v>0.8993931982447689</v>
+        <v>-0.4365905078372946</v>
       </c>
       <c r="J13">
-        <v>-0.4369531029409762</v>
+        <v>1.003661313589152</v>
       </c>
       <c r="K13">
-        <v>1.003492844607284</v>
+        <v>-0.09695126965353879</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -933,34 +933,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.1777422226074639</v>
+        <v>-1.007520009675017</v>
       </c>
       <c r="C14">
-        <v>-0.9662726614299468</v>
+        <v>-0.3857468722612991</v>
       </c>
       <c r="D14">
-        <v>-0.3668156737460341</v>
+        <v>-0.4502017751758141</v>
       </c>
       <c r="E14">
-        <v>-0.441522535107442</v>
+        <v>-0.6594324126472006</v>
       </c>
       <c r="F14">
-        <v>-0.6554532109500923</v>
+        <v>0.9083245926860781</v>
       </c>
       <c r="G14">
-        <v>0.9101489502747081</v>
+        <v>-0.4258347558073555</v>
       </c>
       <c r="H14">
-        <v>-0.4249983366195054</v>
+        <v>1.015616079910623</v>
       </c>
       <c r="I14">
-        <v>1.015999555749994</v>
+        <v>-0.08444455851082849</v>
       </c>
       <c r="J14">
-        <v>-0.08426874508913906</v>
+        <v>-0.2945431432588089</v>
       </c>
       <c r="K14">
-        <v>-0.294462537504619</v>
+        <v>0.3040816658791113</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -968,34 +968,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.2244109514860759</v>
+        <v>-0.3077970529158559</v>
       </c>
       <c r="C15">
-        <v>-0.3609463815409155</v>
+        <v>-0.5788562590806742</v>
       </c>
       <c r="D15">
-        <v>-0.6024388739472215</v>
+        <v>0.961338929688949</v>
       </c>
       <c r="E15">
-        <v>0.9508768341145255</v>
+        <v>-0.3851068719675381</v>
       </c>
       <c r="F15">
-        <v>-0.3897482266356107</v>
+        <v>1.050866189894518</v>
       </c>
       <c r="G15">
-        <v>1.048807121260573</v>
+        <v>-0.05163699300024938</v>
       </c>
       <c r="H15">
-        <v>-0.05255046847064687</v>
+        <v>-0.2628248666403167</v>
       </c>
       <c r="I15">
-        <v>-0.2632301165777211</v>
+        <v>0.3353140868060093</v>
       </c>
       <c r="J15">
-        <v>0.3351343036404092</v>
+        <v>0.009465662865194846</v>
       </c>
       <c r="K15">
-        <v>0.009385904711892601</v>
+        <v>0.7265657060874963</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1003,179 +1003,314 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.4245064810212553</v>
+        <v>1.139271322614915</v>
       </c>
       <c r="C16">
-        <v>1.037734429689356</v>
+        <v>-0.2982492763927073</v>
       </c>
       <c r="D16">
-        <v>-0.3468225008504117</v>
+        <v>1.093791915679716</v>
       </c>
       <c r="E16">
-        <v>1.070715795931569</v>
+        <v>-0.02972831832925377</v>
       </c>
       <c r="F16">
-        <v>-0.04069625057600418</v>
+        <v>-0.250970648745674</v>
       </c>
       <c r="G16">
-        <v>-0.2561834828541579</v>
+        <v>0.3423607205295725</v>
       </c>
       <c r="H16">
-        <v>0.3398831621955681</v>
+        <v>0.01421452142035373</v>
       </c>
       <c r="I16">
-        <v>0.01303698643746765</v>
+        <v>0.7302167878130713</v>
       </c>
       <c r="J16">
-        <v>0.7296571284789803</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>2.425529404116681</v>
+      </c>
+      <c r="K16">
+        <v>9.269510203911928</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>1.048302449822014</v>
+        <v>-0.2876812562600493</v>
       </c>
       <c r="C17">
-        <v>-0.3380477122786401</v>
+        <v>1.102566704251488</v>
       </c>
       <c r="D17">
-        <v>1.078518199975304</v>
+        <v>-0.02192591428551849</v>
       </c>
       <c r="E17">
-        <v>-0.03338618974149576</v>
+        <v>-0.2436605879111656</v>
       </c>
       <c r="F17">
-        <v>-0.2491226352005299</v>
+        <v>0.3494215681832005</v>
       </c>
       <c r="G17">
-        <v>0.3468183386966098</v>
+        <v>0.02114969792139543</v>
       </c>
       <c r="H17">
-        <v>0.01990898967064902</v>
+        <v>0.7370887910462527</v>
       </c>
       <c r="I17">
-        <v>0.7364974651863733</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>2.432369740824074</v>
+      </c>
+      <c r="J17">
+        <v>9.276334707790259</v>
+      </c>
+      <c r="K17">
+        <v>-8.274453695494744</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-0.4450221160943206</v>
+        <v>0.9955923004358076</v>
       </c>
       <c r="C18">
-        <v>1.013258577037035</v>
+        <v>-0.0871855372237873</v>
       </c>
       <c r="D18">
-        <v>-0.07897678827447507</v>
+        <v>-0.2892511864441449</v>
       </c>
       <c r="E18">
-        <v>-0.2854533117167836</v>
+        <v>0.3130908916669468</v>
       </c>
       <c r="F18">
-        <v>0.3148482439627</v>
+        <v>-0.0108203968125144</v>
       </c>
       <c r="G18">
-        <v>-0.01000723788286506</v>
+        <v>0.7071725634927386</v>
       </c>
       <c r="H18">
-        <v>0.7075488269872576</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>2.403421102624959</v>
+      </c>
+      <c r="I18">
+        <v>9.247842001542866</v>
+      </c>
+      <c r="J18">
+        <v>-8.302731520459806</v>
+      </c>
+      <c r="K18">
+        <v>-0.5932976437114486</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>1.047131774781531</v>
+        <v>-0.0533123394792912</v>
       </c>
       <c r="C19">
-        <v>-0.0762236280176779</v>
+        <v>-0.2864980261873478</v>
       </c>
       <c r="D19">
-        <v>-0.2970422425675381</v>
+        <v>0.3015019608161922</v>
       </c>
       <c r="E19">
-        <v>0.2967268299057859</v>
+        <v>-0.02894181086942849</v>
       </c>
       <c r="F19">
-        <v>-0.03110735124562009</v>
+        <v>0.6860724501299835</v>
       </c>
       <c r="G19">
-        <v>0.6850904903007842</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>2.380962765938485</v>
+      </c>
+      <c r="H19">
+        <v>9.224764288378545</v>
+      </c>
+      <c r="I19">
+        <v>-8.326091704608711</v>
+      </c>
+      <c r="J19">
+        <v>-0.6167866614867294</v>
+      </c>
+      <c r="K19">
+        <v>0.9660844828649828</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.333499057523928</v>
+        <v>-0.5437734556935978</v>
       </c>
       <c r="C20">
-        <v>-0.4283215140497347</v>
+        <v>0.1702226893339956</v>
       </c>
       <c r="D20">
-        <v>0.2233711486320382</v>
+        <v>-0.1022974921431762</v>
       </c>
       <c r="E20">
-        <v>-0.07834862591279368</v>
+        <v>0.63883117546281</v>
       </c>
       <c r="F20">
-        <v>0.6496436059220461</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>2.345515881559747</v>
+      </c>
+      <c r="G20">
+        <v>9.194643401784708</v>
+      </c>
+      <c r="H20">
+        <v>-8.35380748862633</v>
+      </c>
+      <c r="I20">
+        <v>-0.6434163542466904</v>
+      </c>
+      <c r="J20">
+        <v>0.9399452457891766</v>
+      </c>
+      <c r="K20">
+        <v>-2.026139092643445</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.4715856280184577</v>
+        <v>0.1269585753652727</v>
       </c>
       <c r="C21">
-        <v>0.1950297526051633</v>
+        <v>-0.1306388881700511</v>
       </c>
       <c r="D21">
-        <v>-0.1030246514249161</v>
+        <v>0.6141551499506877</v>
       </c>
       <c r="E21">
-        <v>0.6253569729452143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>2.321229248582915</v>
+      </c>
+      <c r="F21">
+        <v>9.170020105529264</v>
+      </c>
+      <c r="G21">
+        <v>-8.378790661567026</v>
+      </c>
+      <c r="H21">
+        <v>-0.668646313777596</v>
+      </c>
+      <c r="I21">
+        <v>0.9145696739774734</v>
+      </c>
+      <c r="J21">
+        <v>-2.051594272676513</v>
+      </c>
+      <c r="K21">
+        <v>0.2124867959412257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.3052209078313319</v>
+        <v>-0.02044773294388247</v>
       </c>
       <c r="C22">
-        <v>-0.04690201748056927</v>
+        <v>0.6702777838950345</v>
       </c>
       <c r="D22">
-        <v>0.6594387888791253</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>2.355311064516826</v>
+      </c>
+      <c r="E22">
+        <v>9.195119489401716</v>
+      </c>
+      <c r="F22">
+        <v>-8.357352010851283</v>
+      </c>
+      <c r="G22">
+        <v>-0.6486996043872704</v>
+      </c>
+      <c r="H22">
+        <v>0.933908325411367</v>
+      </c>
+      <c r="I22">
+        <v>-2.032503447757091</v>
+      </c>
+      <c r="J22">
+        <v>0.2314766118486793</v>
+      </c>
+      <c r="K22">
+        <v>-0.2196984654044191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.2037521027456684</v>
+        <v>0.5134276986299353</v>
       </c>
       <c r="C23">
-        <v>0.5642710581134855</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>2.260143333751186</v>
+      </c>
+      <c r="D23">
+        <v>9.140692358735786</v>
+      </c>
+      <c r="E23">
+        <v>-8.393905998263049</v>
+      </c>
+      <c r="F23">
+        <v>-0.6763647928704721</v>
+      </c>
+      <c r="G23">
+        <v>0.9105011857394278</v>
+      </c>
+      <c r="H23">
+        <v>-2.053840367633118</v>
+      </c>
+      <c r="I23">
+        <v>0.2111440141036455</v>
+      </c>
+      <c r="J23">
+        <v>-0.2395424444363658</v>
+      </c>
+      <c r="K23">
+        <v>-0.379677132609091</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0.5154074445011286</v>
+        <v>2.211279720138829</v>
+      </c>
+      <c r="C24">
+        <v>9.112923508459115</v>
+      </c>
+      <c r="D24">
+        <v>-8.411125843300541</v>
+      </c>
+      <c r="E24">
+        <v>-0.688459908824067</v>
+      </c>
+      <c r="F24">
+        <v>0.9009170582553292</v>
+      </c>
+      <c r="G24">
+        <v>-2.06219729845007</v>
+      </c>
+      <c r="H24">
+        <v>0.2033872967055401</v>
+      </c>
+      <c r="I24">
+        <v>-0.2470056675122654</v>
+      </c>
+      <c r="J24">
+        <v>-0.386996833524363</v>
+      </c>
+      <c r="K24">
+        <v>0.1394248687261353</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/6_naive_forecaster_qoq_error_series_ifoCASTset_naive_qoq/AR2_50_9_qoq_errors_latest_eval_ifoCASTset_naive_qoq.xlsx
+++ b/0_1_Output_Data/6_naive_forecaster_qoq_error_series_ifoCASTset_naive_qoq/AR2_50_9_qoq_errors_latest_eval_ifoCASTset_naive_qoq.xlsx
@@ -513,34 +513,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-1.282872386776422</v>
+        <v>-0.1278195408837234</v>
       </c>
       <c r="C2">
-        <v>0.1391894435007327</v>
+        <v>-1.400444400388857</v>
       </c>
       <c r="D2">
-        <v>-0.182694870696341</v>
+        <v>0.08695924927729271</v>
       </c>
       <c r="E2">
-        <v>0.3443354285759472</v>
+        <v>-0.207196275323166</v>
       </c>
       <c r="F2">
-        <v>0.1070053646347159</v>
+        <v>0.3329321255475683</v>
       </c>
       <c r="G2">
-        <v>0.2095078597799856</v>
+        <v>0.101692144383436</v>
       </c>
       <c r="H2">
-        <v>0.110633009540361</v>
+        <v>0.2070326302046627</v>
       </c>
       <c r="I2">
-        <v>0.6128907522960124</v>
+        <v>0.1094798668430039</v>
       </c>
       <c r="J2">
-        <v>0.8708754778845325</v>
+        <v>0.6123535359610832</v>
       </c>
       <c r="K2">
-        <v>-0.8533573809972426</v>
+        <v>0.8706252039810712</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -548,34 +548,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.2750606270018259</v>
+        <v>0.5447147469754596</v>
       </c>
       <c r="C3">
-        <v>0.5534868575902183</v>
+        <v>0.001955153691105105</v>
       </c>
       <c r="D3">
-        <v>0.2080306981463169</v>
+        <v>0.4339574590591693</v>
       </c>
       <c r="E3">
-        <v>0.2637694639246414</v>
+        <v>0.1559537485280918</v>
       </c>
       <c r="F3">
-        <v>0.1446758428348626</v>
+        <v>0.2410754634991643</v>
       </c>
       <c r="G3">
-        <v>0.6381972808990434</v>
+        <v>0.1347863954460349</v>
       </c>
       <c r="H3">
-        <v>0.892409660067914</v>
+        <v>0.6338877181444649</v>
       </c>
       <c r="I3">
-        <v>-0.8334509197017121</v>
+        <v>0.8905316652766015</v>
       </c>
       <c r="J3">
-        <v>-0.1806300843769859</v>
+        <v>-0.8342693007396872</v>
       </c>
       <c r="K3">
-        <v>0.1825572214681606</v>
+        <v>-0.1809867134402706</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -583,34 +583,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.1918994249285815</v>
+        <v>0.4178261858414339</v>
       </c>
       <c r="C4">
-        <v>0.239828553585737</v>
+        <v>0.1320128381891874</v>
       </c>
       <c r="D4">
-        <v>0.1203502894047785</v>
+        <v>0.2167499100690802</v>
       </c>
       <c r="E4">
-        <v>0.6162427231036979</v>
+        <v>0.1128318376506894</v>
       </c>
       <c r="F4">
-        <v>0.8725296081739512</v>
+        <v>0.6140076662505021</v>
       </c>
       <c r="G4">
-        <v>-0.8520779198862551</v>
+        <v>0.8719046650920586</v>
       </c>
       <c r="H4">
-        <v>-0.1986054693098328</v>
+        <v>-0.8522446856725341</v>
       </c>
       <c r="I4">
-        <v>0.164895676365706</v>
+        <v>-0.1986482585427252</v>
       </c>
       <c r="J4">
-        <v>-0.7358907623030519</v>
+        <v>0.1648850825765775</v>
       </c>
       <c r="K4">
-        <v>0.3344822619593895</v>
+        <v>-0.7358932949942634</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -618,34 +618,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.2023032603298698</v>
+        <v>0.2987028809941715</v>
       </c>
       <c r="C5">
-        <v>0.6254400633356464</v>
+        <v>0.1220291778826379</v>
       </c>
       <c r="D5">
-        <v>0.85282204567298</v>
+        <v>0.5943001037495309</v>
       </c>
       <c r="E5">
-        <v>-0.8813162353832781</v>
+        <v>0.8426663495950357</v>
       </c>
       <c r="F5">
-        <v>-0.2307498541254956</v>
+        <v>-0.8843890704881969</v>
       </c>
       <c r="G5">
-        <v>0.1318997099156809</v>
+        <v>-0.2316442249927503</v>
       </c>
       <c r="H5">
-        <v>-0.7691308072183836</v>
+        <v>0.131645037661246</v>
       </c>
       <c r="I5">
-        <v>0.301173166579823</v>
+        <v>-0.7692023903738299</v>
       </c>
       <c r="J5">
-        <v>-0.2759067096457259</v>
+        <v>0.3011532043707359</v>
       </c>
       <c r="K5">
-        <v>-0.4815182333746927</v>
+        <v>-0.2759122492816765</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -653,34 +653,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.8240207549100882</v>
+        <v>0.5654988129866392</v>
       </c>
       <c r="C6">
-        <v>-0.8834400190618514</v>
+        <v>0.8405425659164625</v>
       </c>
       <c r="D6">
-        <v>-0.2234668893430731</v>
+        <v>-0.8771061057057743</v>
       </c>
       <c r="E6">
-        <v>0.1423162228589251</v>
+        <v>-0.2212277120495061</v>
       </c>
       <c r="F6">
-        <v>-0.7576896617840617</v>
+        <v>0.1430861830955678</v>
       </c>
       <c r="G6">
-        <v>0.3129479666538719</v>
+        <v>-0.7574275902997809</v>
       </c>
       <c r="H6">
-        <v>-0.2640230888223336</v>
+        <v>0.3130368251941282</v>
       </c>
       <c r="I6">
-        <v>-0.4695989885331262</v>
+        <v>-0.26399300444011</v>
       </c>
       <c r="J6">
-        <v>0.5095561729841656</v>
+        <v>-0.4695888087369317</v>
       </c>
       <c r="K6">
-        <v>-0.226786726508225</v>
+        <v>0.509559616829137</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -688,34 +688,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.3453490504388863</v>
+        <v>-0.9989882668015876</v>
       </c>
       <c r="C7">
-        <v>0.05047105392560119</v>
+        <v>-0.31307288098283</v>
       </c>
       <c r="D7">
-        <v>-0.83756240835547</v>
+        <v>0.06321343652415951</v>
       </c>
       <c r="E7">
-        <v>0.2380186391052039</v>
+        <v>-0.8323569178484489</v>
       </c>
       <c r="F7">
-        <v>-0.3369057261414908</v>
+        <v>0.240154187874971</v>
       </c>
       <c r="G7">
-        <v>-0.5416351540011936</v>
+        <v>-0.3360291699081773</v>
       </c>
       <c r="H7">
-        <v>0.4378696407944773</v>
+        <v>-0.54127534092662</v>
       </c>
       <c r="I7">
-        <v>-0.2983290036150871</v>
+        <v>0.4380173397222749</v>
       </c>
       <c r="J7">
-        <v>-0.3162381895859678</v>
+        <v>-0.2982683749317745</v>
       </c>
       <c r="K7">
-        <v>-0.2928084366771486</v>
+        <v>-0.3162133022174854</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -723,34 +723,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.7422476366981072</v>
+        <v>0.1585282081815222</v>
       </c>
       <c r="C8">
-        <v>0.3162863437924887</v>
+        <v>-0.7540892131611641</v>
       </c>
       <c r="D8">
-        <v>-0.2663152355556169</v>
+        <v>0.3107446784608449</v>
       </c>
       <c r="E8">
-        <v>-0.4745738317060451</v>
+        <v>-0.2689678476130288</v>
       </c>
       <c r="F8">
-        <v>0.5033030119909454</v>
+        <v>-0.4758419697301518</v>
       </c>
       <c r="G8">
-        <v>-0.2336496331081919</v>
+        <v>0.5026967102291701</v>
       </c>
       <c r="H8">
-        <v>-0.2519093219356206</v>
+        <v>-0.2339395072814273</v>
       </c>
       <c r="I8">
-        <v>-0.2286430458875994</v>
+        <v>-0.2520479114279362</v>
       </c>
       <c r="J8">
-        <v>-0.5938837416006923</v>
+        <v>-0.2287093058339515</v>
       </c>
       <c r="K8">
-        <v>0.06190409654164158</v>
+        <v>-0.5939154206293106</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,34 +758,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.00619269375287701</v>
+        <v>0.5708672202635848</v>
       </c>
       <c r="C9">
-        <v>-0.3336679001236204</v>
+        <v>-0.1280619160306041</v>
       </c>
       <c r="D9">
-        <v>0.5887475516261532</v>
+        <v>-0.390397430094944</v>
       </c>
       <c r="E9">
-        <v>-0.1739978958108406</v>
+        <v>0.5623484475265214</v>
       </c>
       <c r="F9">
-        <v>-0.2042525916245146</v>
+        <v>-0.1862827769703213</v>
       </c>
       <c r="G9">
-        <v>-0.1865645222487989</v>
+        <v>-0.2099693877891357</v>
       </c>
       <c r="H9">
-        <v>-0.5543992815454399</v>
+        <v>-0.1892248457786991</v>
       </c>
       <c r="I9">
-        <v>0.1001822482843727</v>
+        <v>-0.5556372688865794</v>
       </c>
       <c r="J9">
-        <v>-0.03126473275901087</v>
+        <v>0.09960614818241281</v>
       </c>
       <c r="K9">
-        <v>-0.1410506211186619</v>
+        <v>-0.03153282219454001</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -793,34 +793,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.3911393015443105</v>
+        <v>-0.5880056801767868</v>
       </c>
       <c r="C10">
-        <v>-0.2979577194736586</v>
+        <v>0.4383886238637034</v>
       </c>
       <c r="D10">
-        <v>-0.2956322122566587</v>
+        <v>-0.2776623976024654</v>
       </c>
       <c r="E10">
-        <v>-0.2635227406874879</v>
+        <v>-0.2869276062278247</v>
       </c>
       <c r="F10">
-        <v>-0.6249641526670209</v>
+        <v>-0.2597897169002801</v>
       </c>
       <c r="G10">
-        <v>0.03245628485901808</v>
+        <v>-0.623363232311934</v>
       </c>
       <c r="H10">
-        <v>-0.09772803603944658</v>
+        <v>0.03314284490197711</v>
       </c>
       <c r="I10">
-        <v>-0.2069514014028122</v>
+        <v>-0.09743360247869032</v>
       </c>
       <c r="J10">
-        <v>-1.036602919657539</v>
+        <v>-0.2068251325899858</v>
       </c>
       <c r="K10">
-        <v>-0.4560229796881132</v>
+        <v>-1.036548768856761</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -828,34 +828,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.228230158963832</v>
+        <v>-0.2102603443096386</v>
       </c>
       <c r="C11">
-        <v>-0.1886450477650728</v>
+        <v>-0.2120499133054097</v>
       </c>
       <c r="D11">
-        <v>-0.5467980559473664</v>
+        <v>-0.1816236201806256</v>
       </c>
       <c r="E11">
-        <v>0.1120680736150478</v>
+        <v>-0.5437514435559043</v>
       </c>
       <c r="F11">
-        <v>-0.01748087635905388</v>
+        <v>0.1133900045823698</v>
       </c>
       <c r="G11">
-        <v>-0.1264250868990488</v>
+        <v>-0.01690728797492691</v>
       </c>
       <c r="H11">
-        <v>-0.9559539928657461</v>
+        <v>-0.1261762057981929</v>
       </c>
       <c r="I11">
-        <v>-0.3753202137097185</v>
+        <v>-0.9558460028783662</v>
       </c>
       <c r="J11">
-        <v>-0.4586594580766912</v>
+        <v>-0.3752733566469112</v>
       </c>
       <c r="K11">
-        <v>-0.6765490042469573</v>
+        <v>-0.4586391267071986</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -863,34 +863,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.5591547568613399</v>
+        <v>-0.1939803210945991</v>
       </c>
       <c r="C12">
-        <v>0.09787708368923709</v>
+        <v>-0.5579424334817151</v>
       </c>
       <c r="D12">
-        <v>-0.03242713058169561</v>
+        <v>0.09844375035972808</v>
       </c>
       <c r="E12">
-        <v>-0.1416815451927503</v>
+        <v>-0.03216374626862839</v>
       </c>
       <c r="F12">
-        <v>-0.9713369016796535</v>
+        <v>-0.1415591146121002</v>
       </c>
       <c r="G12">
-        <v>-0.390754202413632</v>
+        <v>-0.9712799915822796</v>
       </c>
       <c r="H12">
-        <v>-0.4741138500012969</v>
+        <v>-0.3907277485715169</v>
       </c>
       <c r="I12">
-        <v>-0.6920114308521601</v>
+        <v>-0.4741015533124014</v>
       </c>
       <c r="J12">
-        <v>0.8717720887233864</v>
+        <v>-0.692005714912784</v>
       </c>
       <c r="K12">
-        <v>-0.4642089603862817</v>
+        <v>0.8717747456957818</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -898,34 +898,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.1398755720077088</v>
+        <v>0.2707464529491325</v>
       </c>
       <c r="C13">
-        <v>-0.04718941243373825</v>
+        <v>0.06232838649038364</v>
       </c>
       <c r="D13">
-        <v>-0.9130114627925084</v>
+        <v>-0.08323367572495516</v>
       </c>
       <c r="E13">
-        <v>-0.3492324732466185</v>
+        <v>-0.9297582624152663</v>
       </c>
       <c r="F13">
-        <v>-0.4403994753588329</v>
+        <v>-0.357013373929053</v>
       </c>
       <c r="G13">
-        <v>-0.6619245159313032</v>
+        <v>-0.4440146383915445</v>
       </c>
       <c r="H13">
-        <v>0.900173610209962</v>
+        <v>-0.6636041934262084</v>
       </c>
       <c r="I13">
-        <v>-0.4365905078372946</v>
+        <v>0.8993931982447689</v>
       </c>
       <c r="J13">
-        <v>1.003661313589152</v>
+        <v>-0.4369531029409762</v>
       </c>
       <c r="K13">
-        <v>-0.09695126965353879</v>
+        <v>1.003492844607284</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -933,34 +933,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-1.007520009675017</v>
+        <v>-0.1777422226074639</v>
       </c>
       <c r="C14">
-        <v>-0.3857468722612991</v>
+        <v>-0.9662726614299468</v>
       </c>
       <c r="D14">
-        <v>-0.4502017751758141</v>
+        <v>-0.3668156737460341</v>
       </c>
       <c r="E14">
-        <v>-0.6594324126472006</v>
+        <v>-0.441522535107442</v>
       </c>
       <c r="F14">
-        <v>0.9083245926860781</v>
+        <v>-0.6554532109500923</v>
       </c>
       <c r="G14">
-        <v>-0.4258347558073555</v>
+        <v>0.9101489502747081</v>
       </c>
       <c r="H14">
-        <v>1.015616079910623</v>
+        <v>-0.4249983366195054</v>
       </c>
       <c r="I14">
-        <v>-0.08444455851082849</v>
+        <v>1.015999555749994</v>
       </c>
       <c r="J14">
-        <v>-0.2945431432588089</v>
+        <v>-0.08426874508913906</v>
       </c>
       <c r="K14">
-        <v>0.3040816658791113</v>
+        <v>-0.294462537504619</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -968,34 +968,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.3077970529158559</v>
+        <v>-0.2244109514860759</v>
       </c>
       <c r="C15">
-        <v>-0.5788562590806742</v>
+        <v>-0.3609463815409155</v>
       </c>
       <c r="D15">
-        <v>0.961338929688949</v>
+        <v>-0.6024388739472215</v>
       </c>
       <c r="E15">
-        <v>-0.3851068719675381</v>
+        <v>0.9508768341145255</v>
       </c>
       <c r="F15">
-        <v>1.050866189894518</v>
+        <v>-0.3897482266356107</v>
       </c>
       <c r="G15">
-        <v>-0.05163699300024938</v>
+        <v>1.048807121260573</v>
       </c>
       <c r="H15">
-        <v>-0.2628248666403167</v>
+        <v>-0.05255046847064687</v>
       </c>
       <c r="I15">
-        <v>0.3353140868060093</v>
+        <v>-0.2632301165777211</v>
       </c>
       <c r="J15">
-        <v>0.009465662865194846</v>
+        <v>0.3351343036404092</v>
       </c>
       <c r="K15">
-        <v>0.7265657060874963</v>
+        <v>0.009385904711892601</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1003,34 +1003,34 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>1.139271322614915</v>
+        <v>-0.4245064810212553</v>
       </c>
       <c r="C16">
-        <v>-0.2982492763927073</v>
+        <v>1.037734429689356</v>
       </c>
       <c r="D16">
-        <v>1.093791915679716</v>
+        <v>-0.3468225008504117</v>
       </c>
       <c r="E16">
-        <v>-0.02972831832925377</v>
+        <v>1.070715795931569</v>
       </c>
       <c r="F16">
-        <v>-0.250970648745674</v>
+        <v>-0.04069625057600418</v>
       </c>
       <c r="G16">
-        <v>0.3423607205295725</v>
+        <v>-0.2561834828541579</v>
       </c>
       <c r="H16">
-        <v>0.01421452142035373</v>
+        <v>0.3398831621955681</v>
       </c>
       <c r="I16">
-        <v>0.7302167878130713</v>
+        <v>0.01303698643746765</v>
       </c>
       <c r="J16">
-        <v>2.425529404116681</v>
+        <v>0.7296571284789803</v>
       </c>
       <c r="K16">
-        <v>9.269510203911928</v>
+        <v>2.425263408987349</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1038,34 +1038,34 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-0.2876812562600493</v>
+        <v>1.048302449822014</v>
       </c>
       <c r="C17">
-        <v>1.102566704251488</v>
+        <v>-0.3380477122786401</v>
       </c>
       <c r="D17">
-        <v>-0.02192591428551849</v>
+        <v>1.078518199975304</v>
       </c>
       <c r="E17">
-        <v>-0.2436605879111656</v>
+        <v>-0.03338618974149576</v>
       </c>
       <c r="F17">
-        <v>0.3494215681832005</v>
+        <v>-0.2491226352005299</v>
       </c>
       <c r="G17">
-        <v>0.02114969792139543</v>
+        <v>0.3468183386966098</v>
       </c>
       <c r="H17">
-        <v>0.7370887910462527</v>
+        <v>0.01990898967064902</v>
       </c>
       <c r="I17">
-        <v>2.432369740824074</v>
+        <v>0.7364974651863733</v>
       </c>
       <c r="J17">
-        <v>9.276334707790259</v>
+        <v>2.432087912865682</v>
       </c>
       <c r="K17">
-        <v>-8.274453695494744</v>
+        <v>9.276200387606567</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1073,34 +1073,34 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.9955923004358076</v>
+        <v>-0.4450221160943206</v>
       </c>
       <c r="C18">
-        <v>-0.0871855372237873</v>
+        <v>1.013258577037035</v>
       </c>
       <c r="D18">
-        <v>-0.2892511864441449</v>
+        <v>-0.07897678827447507</v>
       </c>
       <c r="E18">
-        <v>0.3130908916669468</v>
+        <v>-0.2854533117167836</v>
       </c>
       <c r="F18">
-        <v>-0.0108203968125144</v>
+        <v>0.3148482439627</v>
       </c>
       <c r="G18">
-        <v>0.7071725634927386</v>
+        <v>-0.01000723788286506</v>
       </c>
       <c r="H18">
-        <v>2.403421102624959</v>
+        <v>0.7075488269872576</v>
       </c>
       <c r="I18">
-        <v>9.247842001542866</v>
+        <v>2.403595206618287</v>
       </c>
       <c r="J18">
-        <v>-8.302731520459806</v>
+        <v>9.247922562641504</v>
       </c>
       <c r="K18">
-        <v>-0.5932976437114486</v>
+        <v>-8.302694243367595</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1108,34 +1108,34 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-0.0533123394792912</v>
+        <v>1.047131774781531</v>
       </c>
       <c r="C19">
-        <v>-0.2864980261873478</v>
+        <v>-0.0762236280176779</v>
       </c>
       <c r="D19">
-        <v>0.3015019608161922</v>
+        <v>-0.2970422425675381</v>
       </c>
       <c r="E19">
-        <v>-0.02894181086942849</v>
+        <v>0.2967268299057859</v>
       </c>
       <c r="F19">
-        <v>0.6860724501299835</v>
+        <v>-0.03110735124562009</v>
       </c>
       <c r="G19">
-        <v>2.380962765938485</v>
+        <v>0.6850904903007842</v>
       </c>
       <c r="H19">
-        <v>9.224764288378545</v>
+        <v>2.380517493453967</v>
       </c>
       <c r="I19">
-        <v>-8.326091704608711</v>
+        <v>9.2245623784926</v>
       </c>
       <c r="J19">
-        <v>-0.6167866614867294</v>
+        <v>-8.326183261142877</v>
       </c>
       <c r="K19">
-        <v>0.9660844828649828</v>
+        <v>-0.6168281780219288</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1143,34 +1143,34 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.5437734556935978</v>
+        <v>-0.333499057523928</v>
       </c>
       <c r="C20">
-        <v>0.1702226893339956</v>
+        <v>-0.4283215140497347</v>
       </c>
       <c r="D20">
-        <v>-0.1022974921431762</v>
+        <v>0.2233711486320382</v>
       </c>
       <c r="E20">
-        <v>0.63883117546281</v>
+        <v>-0.07834862591279368</v>
       </c>
       <c r="F20">
-        <v>2.345515881559747</v>
+        <v>0.6496436059220461</v>
       </c>
       <c r="G20">
-        <v>9.194643401784708</v>
+        <v>2.35039660686013</v>
       </c>
       <c r="H20">
-        <v>-8.35380748862633</v>
+        <v>9.19684659447498</v>
       </c>
       <c r="I20">
-        <v>-0.6434163542466904</v>
+        <v>-8.352812953902838</v>
       </c>
       <c r="J20">
-        <v>0.9399452457891766</v>
+        <v>-0.642967415097735</v>
       </c>
       <c r="K20">
-        <v>-2.026139092643445</v>
+        <v>0.9401478997058104</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1178,34 +1178,34 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.1269585753652727</v>
+        <v>-0.4715856280184577</v>
       </c>
       <c r="C21">
-        <v>-0.1306388881700511</v>
+        <v>0.1950297526051633</v>
       </c>
       <c r="D21">
-        <v>0.6141551499506877</v>
+        <v>-0.1030246514249161</v>
       </c>
       <c r="E21">
-        <v>2.321229248582915</v>
+        <v>0.6253569729452143</v>
       </c>
       <c r="F21">
-        <v>9.170020105529264</v>
+        <v>2.325773310604686</v>
       </c>
       <c r="G21">
-        <v>-8.378790661567026</v>
+        <v>9.171863421534285</v>
       </c>
       <c r="H21">
-        <v>-0.668646313777596</v>
+        <v>-8.378042913433744</v>
       </c>
       <c r="I21">
-        <v>0.9145696739774734</v>
+        <v>-0.6683429869094382</v>
       </c>
       <c r="J21">
-        <v>-2.051594272676513</v>
+        <v>0.9146927196727432</v>
       </c>
       <c r="K21">
-        <v>0.2124867959412257</v>
+        <v>-2.051544358723237</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1213,34 +1213,34 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.02044773294388247</v>
+        <v>0.3052209078313319</v>
       </c>
       <c r="C22">
-        <v>0.6702777838950345</v>
+        <v>-0.04690201748056927</v>
       </c>
       <c r="D22">
-        <v>2.355311064516826</v>
+        <v>0.6594387888791253</v>
       </c>
       <c r="E22">
-        <v>9.195119489401716</v>
+        <v>2.350872694477139</v>
       </c>
       <c r="F22">
-        <v>-8.357352010851283</v>
+        <v>9.193302072250027</v>
       </c>
       <c r="G22">
-        <v>-0.6486996043872704</v>
+        <v>-8.358096204043417</v>
       </c>
       <c r="H22">
-        <v>0.933908325411367</v>
+        <v>-0.6490043354755446</v>
       </c>
       <c r="I22">
-        <v>-2.032503447757091</v>
+        <v>0.9337835445921647</v>
       </c>
       <c r="J22">
-        <v>0.2314766118486793</v>
+        <v>-2.032554542815784</v>
       </c>
       <c r="K22">
-        <v>-0.2196984654044191</v>
+        <v>0.2314556895223195</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1248,34 +1248,34 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.5134276986299353</v>
+        <v>-0.2037521027456684</v>
       </c>
       <c r="C23">
-        <v>2.260143333751186</v>
+        <v>0.5642710581134855</v>
       </c>
       <c r="D23">
-        <v>9.140692358735786</v>
+        <v>2.296445563811207</v>
       </c>
       <c r="E23">
-        <v>-8.393905998263049</v>
+        <v>9.156748084838261</v>
       </c>
       <c r="F23">
-        <v>-0.6763647928704721</v>
+        <v>-8.38576139252662</v>
       </c>
       <c r="G23">
-        <v>0.9105011857394278</v>
+        <v>-0.6724114751474837</v>
       </c>
       <c r="H23">
-        <v>-2.053840367633118</v>
+        <v>0.9124466247161374</v>
       </c>
       <c r="I23">
-        <v>0.2111440141036455</v>
+        <v>-2.052887140560817</v>
       </c>
       <c r="J23">
-        <v>-0.2395424444363658</v>
+        <v>0.2116117104903729</v>
       </c>
       <c r="K23">
-        <v>-0.379677132609091</v>
+        <v>-0.2393130690951168</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1283,34 +1283,34 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>2.211279720138829</v>
+        <v>0.5154074445011286</v>
       </c>
       <c r="C24">
-        <v>9.112923508459115</v>
+        <v>2.268676713534536</v>
       </c>
       <c r="D24">
-        <v>-8.411125843300541</v>
+        <v>9.13952823980077</v>
       </c>
       <c r="E24">
-        <v>-0.688459908824067</v>
+        <v>-8.397856508480213</v>
       </c>
       <c r="F24">
-        <v>0.9009170582553292</v>
+        <v>-0.6819956026315825</v>
       </c>
       <c r="G24">
-        <v>-2.06219729845007</v>
+        <v>0.9040896938991861</v>
       </c>
       <c r="H24">
-        <v>0.2033872967055401</v>
+        <v>-2.060643857958923</v>
       </c>
       <c r="I24">
-        <v>-0.2470056675122654</v>
+        <v>0.2041484874144732</v>
       </c>
       <c r="J24">
-        <v>-0.386996833524363</v>
+        <v>-0.2466327700103889</v>
       </c>
       <c r="K24">
-        <v>0.1394248687261353</v>
+        <v>-0.3868141421360822</v>
       </c>
     </row>
   </sheetData>
